--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Epo-Crlf3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Epo-Crlf3.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1867706666666667</v>
+        <v>0.07381966666666666</v>
       </c>
       <c r="H2">
-        <v>0.560312</v>
+        <v>0.221459</v>
       </c>
       <c r="I2">
-        <v>0.443921894237458</v>
+        <v>0.1284640970637474</v>
       </c>
       <c r="J2">
-        <v>0.4439218942374579</v>
+        <v>0.1284640970637474</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.392371333333333</v>
+        <v>4.902303000000001</v>
       </c>
       <c r="N2">
-        <v>16.177114</v>
+        <v>14.706909</v>
       </c>
       <c r="O2">
-        <v>0.105727995515183</v>
+        <v>0.07597201518094217</v>
       </c>
       <c r="P2">
-        <v>0.105727995515183</v>
+        <v>0.07597201518094215</v>
       </c>
       <c r="Q2">
-        <v>1.007136788840889</v>
+        <v>0.361886373359</v>
       </c>
       <c r="R2">
-        <v>9.064231099568</v>
+        <v>3.256977360231</v>
       </c>
       <c r="S2">
-        <v>0.04693497204302949</v>
+        <v>0.009759676332333043</v>
       </c>
       <c r="T2">
-        <v>0.04693497204302947</v>
+        <v>0.009759676332333041</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1867706666666667</v>
+        <v>0.07381966666666666</v>
       </c>
       <c r="H3">
-        <v>0.560312</v>
+        <v>0.221459</v>
       </c>
       <c r="I3">
-        <v>0.443921894237458</v>
+        <v>0.1284640970637474</v>
       </c>
       <c r="J3">
-        <v>0.4439218942374579</v>
+        <v>0.1284640970637474</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>16.08662</v>
       </c>
       <c r="O3">
-        <v>0.1051365581780812</v>
+        <v>0.08309923851776384</v>
       </c>
       <c r="P3">
-        <v>0.1051365581780812</v>
+        <v>0.08309923851776382</v>
       </c>
       <c r="Q3">
-        <v>1.001502913937778</v>
+        <v>0.395836308731111</v>
       </c>
       <c r="R3">
-        <v>9.01352622544</v>
+        <v>3.56252677858</v>
       </c>
       <c r="S3">
-        <v>0.04667242006002053</v>
+        <v>0.01067526864286951</v>
       </c>
       <c r="T3">
-        <v>0.04667242006002052</v>
+        <v>0.01067526864286951</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1867706666666667</v>
+        <v>0.07381966666666666</v>
       </c>
       <c r="H4">
-        <v>0.560312</v>
+        <v>0.221459</v>
       </c>
       <c r="I4">
-        <v>0.443921894237458</v>
+        <v>0.1284640970637474</v>
       </c>
       <c r="J4">
-        <v>0.4439218942374579</v>
+        <v>0.1284640970637474</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.717387</v>
+        <v>30.73728233333334</v>
       </c>
       <c r="N4">
-        <v>47.15216099999999</v>
+        <v>92.21184700000001</v>
       </c>
       <c r="O4">
-        <v>0.3081701387985017</v>
+        <v>0.476342094735659</v>
       </c>
       <c r="P4">
-        <v>0.3081701387985017</v>
+        <v>0.4763420947356589</v>
       </c>
       <c r="Q4">
-        <v>2.935546848247999</v>
+        <v>2.269015936085889</v>
       </c>
       <c r="R4">
-        <v>26.419921634232</v>
+        <v>20.421143424773</v>
       </c>
       <c r="S4">
-        <v>0.1368034717628512</v>
+        <v>0.06119285709367044</v>
       </c>
       <c r="T4">
-        <v>0.1368034717628512</v>
+        <v>0.06119285709367043</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1867706666666667</v>
+        <v>0.07381966666666666</v>
       </c>
       <c r="H5">
-        <v>0.560312</v>
+        <v>0.221459</v>
       </c>
       <c r="I5">
-        <v>0.443921894237458</v>
+        <v>0.1284640970637474</v>
       </c>
       <c r="J5">
-        <v>0.4439218942374579</v>
+        <v>0.1284640970637474</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.312325</v>
+        <v>3.761634666666666</v>
       </c>
       <c r="N5">
-        <v>15.936975</v>
+        <v>11.284904</v>
       </c>
       <c r="O5">
-        <v>0.1041585304601045</v>
+        <v>0.05829483938490915</v>
       </c>
       <c r="P5">
-        <v>0.1041585304601045</v>
+        <v>0.05829483938490914</v>
       </c>
       <c r="Q5">
-        <v>0.9921864818000001</v>
+        <v>0.2776826172151111</v>
       </c>
       <c r="R5">
-        <v>8.9296783362</v>
+        <v>2.499143554935999</v>
       </c>
       <c r="S5">
-        <v>0.04623825214283957</v>
+        <v>0.007488793905058531</v>
       </c>
       <c r="T5">
-        <v>0.04623825214283955</v>
+        <v>0.00748879390505853</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1867706666666667</v>
+        <v>0.07381966666666666</v>
       </c>
       <c r="H6">
-        <v>0.560312</v>
+        <v>0.221459</v>
       </c>
       <c r="I6">
-        <v>0.443921894237458</v>
+        <v>0.1284640970637474</v>
       </c>
       <c r="J6">
-        <v>0.4439218942374579</v>
+        <v>0.1284640970637474</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.21801366666667</v>
+        <v>19.76432066666667</v>
       </c>
       <c r="N6">
-        <v>57.654041</v>
+        <v>59.292962</v>
       </c>
       <c r="O6">
-        <v>0.3768067770481296</v>
+        <v>0.3062918121807258</v>
       </c>
       <c r="P6">
-        <v>0.3768067770481295</v>
+        <v>0.3062918121807258</v>
       </c>
       <c r="Q6">
-        <v>3.589361224532444</v>
+        <v>1.458995563506444</v>
       </c>
       <c r="R6">
-        <v>32.304251020792</v>
+        <v>13.130960071558</v>
       </c>
       <c r="S6">
-        <v>0.1672727782287172</v>
+        <v>0.03934750108981584</v>
       </c>
       <c r="T6">
-        <v>0.1672727782287171</v>
+        <v>0.03934750108981584</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.1698756666666666</v>
+        <v>0.1698756666666667</v>
       </c>
       <c r="H7">
-        <v>0.5096269999999999</v>
+        <v>0.5096270000000001</v>
       </c>
       <c r="I7">
-        <v>0.4037653721400808</v>
+        <v>0.2956247991470493</v>
       </c>
       <c r="J7">
-        <v>0.4037653721400807</v>
+        <v>0.2956247991470493</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.392371333333333</v>
+        <v>4.902303000000001</v>
       </c>
       <c r="N7">
-        <v>16.177114</v>
+        <v>14.706909</v>
       </c>
       <c r="O7">
-        <v>0.105727995515183</v>
+        <v>0.07597201518094217</v>
       </c>
       <c r="P7">
-        <v>0.105727995515183</v>
+        <v>0.07597201518094215</v>
       </c>
       <c r="Q7">
-        <v>0.916032675164222</v>
+        <v>0.8327819903270002</v>
       </c>
       <c r="R7">
-        <v>8.244294076477999</v>
+        <v>7.495037912943001</v>
       </c>
       <c r="S7">
-        <v>0.04268930345481264</v>
+        <v>0.02245921172866261</v>
       </c>
       <c r="T7">
-        <v>0.04268930345481264</v>
+        <v>0.02245921172866261</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.1698756666666666</v>
+        <v>0.1698756666666667</v>
       </c>
       <c r="H8">
-        <v>0.5096269999999999</v>
+        <v>0.5096270000000001</v>
       </c>
       <c r="I8">
-        <v>0.4037653721400808</v>
+        <v>0.2956247991470493</v>
       </c>
       <c r="J8">
-        <v>0.4037653721400807</v>
+        <v>0.2956247991470493</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>16.08662</v>
       </c>
       <c r="O8">
-        <v>0.1051365581780812</v>
+        <v>0.08309923851776384</v>
       </c>
       <c r="P8">
-        <v>0.1051365581780812</v>
+        <v>0.08309923851776382</v>
       </c>
       <c r="Q8">
-        <v>0.9109084323044443</v>
+        <v>0.9109084323044444</v>
       </c>
       <c r="R8">
-        <v>8.198175890739998</v>
+        <v>8.19817589074</v>
       </c>
       <c r="S8">
-        <v>0.04245050153830023</v>
+        <v>0.02456619569608668</v>
       </c>
       <c r="T8">
-        <v>0.04245050153830023</v>
+        <v>0.02456619569608667</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.1698756666666666</v>
+        <v>0.1698756666666667</v>
       </c>
       <c r="H9">
-        <v>0.5096269999999999</v>
+        <v>0.5096270000000001</v>
       </c>
       <c r="I9">
-        <v>0.4037653721400808</v>
+        <v>0.2956247991470493</v>
       </c>
       <c r="J9">
-        <v>0.4037653721400807</v>
+        <v>0.2956247991470493</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.717387</v>
+        <v>30.73728233333334</v>
       </c>
       <c r="N9">
-        <v>47.15216099999999</v>
+        <v>92.21184700000001</v>
       </c>
       <c r="O9">
-        <v>0.3081701387985017</v>
+        <v>0.476342094735659</v>
       </c>
       <c r="P9">
-        <v>0.3081701387985017</v>
+        <v>0.4763420947356589</v>
       </c>
       <c r="Q9">
-        <v>2.670001594882999</v>
+        <v>5.221516327896556</v>
       </c>
       <c r="R9">
-        <v>24.03001435394699</v>
+        <v>46.99364695106901</v>
       </c>
       <c r="S9">
-        <v>0.1244284307744374</v>
+        <v>0.1408185360815139</v>
       </c>
       <c r="T9">
-        <v>0.1244284307744374</v>
+        <v>0.1408185360815139</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1698756666666666</v>
+        <v>0.1698756666666667</v>
       </c>
       <c r="H10">
-        <v>0.5096269999999999</v>
+        <v>0.5096270000000001</v>
       </c>
       <c r="I10">
-        <v>0.4037653721400808</v>
+        <v>0.2956247991470493</v>
       </c>
       <c r="J10">
-        <v>0.4037653721400807</v>
+        <v>0.2956247991470493</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.312325</v>
+        <v>3.761634666666666</v>
       </c>
       <c r="N10">
-        <v>15.936975</v>
+        <v>11.284904</v>
       </c>
       <c r="O10">
-        <v>0.1041585304601045</v>
+        <v>0.05829483938490915</v>
       </c>
       <c r="P10">
-        <v>0.1041585304601045</v>
+        <v>0.05829483938490914</v>
       </c>
       <c r="Q10">
-        <v>0.9024347509249999</v>
+        <v>0.6390101967564444</v>
       </c>
       <c r="R10">
-        <v>8.121912758324999</v>
+        <v>5.751091770808</v>
       </c>
       <c r="S10">
-        <v>0.04205560781278804</v>
+        <v>0.01723340018447327</v>
       </c>
       <c r="T10">
-        <v>0.04205560781278803</v>
+        <v>0.01723340018447327</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.1698756666666666</v>
+        <v>0.1698756666666667</v>
       </c>
       <c r="H11">
-        <v>0.5096269999999999</v>
+        <v>0.5096270000000001</v>
       </c>
       <c r="I11">
-        <v>0.4037653721400808</v>
+        <v>0.2956247991470493</v>
       </c>
       <c r="J11">
-        <v>0.4037653721400807</v>
+        <v>0.2956247991470493</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.21801366666667</v>
+        <v>19.76432066666667</v>
       </c>
       <c r="N11">
-        <v>57.654041</v>
+        <v>59.292962</v>
       </c>
       <c r="O11">
-        <v>0.3768067770481296</v>
+        <v>0.3062918121807258</v>
       </c>
       <c r="P11">
-        <v>0.3768067770481295</v>
+        <v>0.3062918121807258</v>
       </c>
       <c r="Q11">
-        <v>3.264672883634111</v>
+        <v>3.357477149463778</v>
       </c>
       <c r="R11">
-        <v>29.382055952707</v>
+        <v>30.217294345174</v>
       </c>
       <c r="S11">
-        <v>0.1521415285597425</v>
+        <v>0.09054745545631282</v>
       </c>
       <c r="T11">
-        <v>0.1521415285597424</v>
+        <v>0.09054745545631282</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.01336833333333333</v>
+        <v>0.07389766666666667</v>
       </c>
       <c r="H12">
-        <v>0.040105</v>
+        <v>0.221693</v>
       </c>
       <c r="I12">
-        <v>0.03177423929595163</v>
+        <v>0.1285998359531712</v>
       </c>
       <c r="J12">
-        <v>0.03177423929595163</v>
+        <v>0.1285998359531712</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.392371333333333</v>
+        <v>4.902303000000001</v>
       </c>
       <c r="N12">
-        <v>16.177114</v>
+        <v>14.706909</v>
       </c>
       <c r="O12">
-        <v>0.105727995515183</v>
+        <v>0.07597201518094217</v>
       </c>
       <c r="P12">
-        <v>0.105727995515183</v>
+        <v>0.07597201518094215</v>
       </c>
       <c r="Q12">
-        <v>0.07208701744111111</v>
+        <v>0.362268752993</v>
       </c>
       <c r="R12">
-        <v>0.64878315697</v>
+        <v>3.260418776937</v>
       </c>
       <c r="S12">
-        <v>0.003359426629780725</v>
+        <v>0.009769988689300997</v>
       </c>
       <c r="T12">
-        <v>0.003359426629780724</v>
+        <v>0.009769988689300995</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.01336833333333333</v>
+        <v>0.07389766666666667</v>
       </c>
       <c r="H13">
-        <v>0.040105</v>
+        <v>0.221693</v>
       </c>
       <c r="I13">
-        <v>0.03177423929595163</v>
+        <v>0.1285998359531712</v>
       </c>
       <c r="J13">
-        <v>0.03177423929595163</v>
+        <v>0.1285998359531712</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>16.08662</v>
       </c>
       <c r="O13">
-        <v>0.1051365581780812</v>
+        <v>0.08309923851776384</v>
       </c>
       <c r="P13">
-        <v>0.1051365581780812</v>
+        <v>0.08309923851776382</v>
       </c>
       <c r="Q13">
-        <v>0.07168376612222223</v>
+        <v>0.3962545608511111</v>
       </c>
       <c r="R13">
-        <v>0.6451538951</v>
+        <v>3.56629104766</v>
       </c>
       <c r="S13">
-        <v>0.003340634158303094</v>
+        <v>0.01068654844121788</v>
       </c>
       <c r="T13">
-        <v>0.003340634158303094</v>
+        <v>0.01068654844121788</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.01336833333333333</v>
+        <v>0.07389766666666667</v>
       </c>
       <c r="H14">
-        <v>0.040105</v>
+        <v>0.221693</v>
       </c>
       <c r="I14">
-        <v>0.03177423929595163</v>
+        <v>0.1285998359531712</v>
       </c>
       <c r="J14">
-        <v>0.03177423929595163</v>
+        <v>0.1285998359531712</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.717387</v>
+        <v>30.73728233333334</v>
       </c>
       <c r="N14">
-        <v>47.15216099999999</v>
+        <v>92.21184700000001</v>
       </c>
       <c r="O14">
-        <v>0.3081701387985017</v>
+        <v>0.476342094735659</v>
       </c>
       <c r="P14">
-        <v>0.3081701387985017</v>
+        <v>0.4763420947356589</v>
       </c>
       <c r="Q14">
-        <v>0.210115268545</v>
+        <v>2.271413444107889</v>
       </c>
       <c r="R14">
-        <v>1.891037416905</v>
+        <v>20.442720996971</v>
       </c>
       <c r="S14">
-        <v>0.009791871734050222</v>
+        <v>0.0612575152405957</v>
       </c>
       <c r="T14">
-        <v>0.009791871734050219</v>
+        <v>0.06125751524059569</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.01336833333333333</v>
+        <v>0.07389766666666667</v>
       </c>
       <c r="H15">
-        <v>0.040105</v>
+        <v>0.221693</v>
       </c>
       <c r="I15">
-        <v>0.03177423929595163</v>
+        <v>0.1285998359531712</v>
       </c>
       <c r="J15">
-        <v>0.03177423929595163</v>
+        <v>0.1285998359531712</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.312325</v>
+        <v>3.761634666666666</v>
       </c>
       <c r="N15">
-        <v>15.936975</v>
+        <v>11.284904</v>
       </c>
       <c r="O15">
-        <v>0.1041585304601045</v>
+        <v>0.05829483938490915</v>
       </c>
       <c r="P15">
-        <v>0.1041585304601045</v>
+        <v>0.05829483938490914</v>
       </c>
       <c r="Q15">
-        <v>0.07101693137500001</v>
+        <v>0.2779760247191111</v>
       </c>
       <c r="R15">
-        <v>0.639152382375</v>
+        <v>2.501784222472</v>
       </c>
       <c r="S15">
-        <v>0.003309558071554029</v>
+        <v>0.007496706781815782</v>
       </c>
       <c r="T15">
-        <v>0.003309558071554027</v>
+        <v>0.007496706781815781</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.01336833333333333</v>
+        <v>0.07389766666666667</v>
       </c>
       <c r="H16">
-        <v>0.040105</v>
+        <v>0.221693</v>
       </c>
       <c r="I16">
-        <v>0.03177423929595163</v>
+        <v>0.1285998359531712</v>
       </c>
       <c r="J16">
-        <v>0.03177423929595163</v>
+        <v>0.1285998359531712</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.21801366666667</v>
+        <v>19.76432066666667</v>
       </c>
       <c r="N16">
-        <v>57.654041</v>
+        <v>59.292962</v>
       </c>
       <c r="O16">
-        <v>0.3768067770481296</v>
+        <v>0.3062918121807258</v>
       </c>
       <c r="P16">
-        <v>0.3768067770481295</v>
+        <v>0.3062918121807258</v>
       </c>
       <c r="Q16">
-        <v>0.2569128127005556</v>
+        <v>1.460537180518444</v>
       </c>
       <c r="R16">
-        <v>2.312215314305</v>
+        <v>13.144834624666</v>
       </c>
       <c r="S16">
-        <v>0.01197274870226357</v>
+        <v>0.03938907680024088</v>
       </c>
       <c r="T16">
-        <v>0.01197274870226356</v>
+        <v>0.03938907680024088</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.050714</v>
+        <v>0.2570396666666667</v>
       </c>
       <c r="H17">
-        <v>0.152142</v>
+        <v>0.771119</v>
       </c>
       <c r="I17">
-        <v>0.1205384943265097</v>
+        <v>0.447311267836032</v>
       </c>
       <c r="J17">
-        <v>0.1205384943265097</v>
+        <v>0.447311267836032</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.392371333333333</v>
+        <v>4.902303000000001</v>
       </c>
       <c r="N17">
-        <v>16.177114</v>
+        <v>14.706909</v>
       </c>
       <c r="O17">
-        <v>0.105727995515183</v>
+        <v>0.07597201518094217</v>
       </c>
       <c r="P17">
-        <v>0.105727995515183</v>
+        <v>0.07597201518094215</v>
       </c>
       <c r="Q17">
-        <v>0.2734687197986667</v>
+        <v>1.260086329019</v>
       </c>
       <c r="R17">
-        <v>2.461218478188</v>
+        <v>11.340776961171</v>
       </c>
       <c r="S17">
-        <v>0.01274429338756013</v>
+        <v>0.03398313843064552</v>
       </c>
       <c r="T17">
-        <v>0.01274429338756013</v>
+        <v>0.03398313843064551</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.050714</v>
+        <v>0.2570396666666667</v>
       </c>
       <c r="H18">
-        <v>0.152142</v>
+        <v>0.771119</v>
       </c>
       <c r="I18">
-        <v>0.1205384943265097</v>
+        <v>0.447311267836032</v>
       </c>
       <c r="J18">
-        <v>0.1205384943265097</v>
+        <v>0.447311267836032</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>16.08662</v>
       </c>
       <c r="O18">
-        <v>0.1051365581780812</v>
+        <v>0.08309923851776384</v>
       </c>
       <c r="P18">
-        <v>0.1051365581780812</v>
+        <v>0.08309923851776382</v>
       </c>
       <c r="Q18">
-        <v>0.2719389488933333</v>
+        <v>1.378299814197778</v>
       </c>
       <c r="R18">
-        <v>2.44745054004</v>
+        <v>12.40469832778</v>
       </c>
       <c r="S18">
-        <v>0.01267300242145741</v>
+        <v>0.03717122573758977</v>
       </c>
       <c r="T18">
-        <v>0.01267300242145741</v>
+        <v>0.03717122573758976</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>26</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.050714</v>
+        <v>0.2570396666666667</v>
       </c>
       <c r="H19">
-        <v>0.152142</v>
+        <v>0.771119</v>
       </c>
       <c r="I19">
-        <v>0.1205384943265097</v>
+        <v>0.447311267836032</v>
       </c>
       <c r="J19">
-        <v>0.1205384943265097</v>
+        <v>0.447311267836032</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.717387</v>
+        <v>30.73728233333334</v>
       </c>
       <c r="N19">
-        <v>47.15216099999999</v>
+        <v>92.21184700000001</v>
       </c>
       <c r="O19">
-        <v>0.3081701387985017</v>
+        <v>0.476342094735659</v>
       </c>
       <c r="P19">
-        <v>0.3081701387985017</v>
+        <v>0.4763420947356589</v>
       </c>
       <c r="Q19">
-        <v>0.7970915643179999</v>
+        <v>7.900700805199223</v>
       </c>
       <c r="R19">
-        <v>7.173824078861998</v>
+        <v>71.10630724679301</v>
       </c>
       <c r="S19">
-        <v>0.03714636452716292</v>
+        <v>0.2130731863198789</v>
       </c>
       <c r="T19">
-        <v>0.03714636452716291</v>
+        <v>0.2130731863198789</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>22</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.050714</v>
+        <v>0.2570396666666667</v>
       </c>
       <c r="H20">
-        <v>0.152142</v>
+        <v>0.771119</v>
       </c>
       <c r="I20">
-        <v>0.1205384943265097</v>
+        <v>0.447311267836032</v>
       </c>
       <c r="J20">
-        <v>0.1205384943265097</v>
+        <v>0.447311267836032</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.312325</v>
+        <v>3.761634666666666</v>
       </c>
       <c r="N20">
-        <v>15.936975</v>
+        <v>11.284904</v>
       </c>
       <c r="O20">
-        <v>0.1041585304601045</v>
+        <v>0.05829483938490915</v>
       </c>
       <c r="P20">
-        <v>0.1041585304601045</v>
+        <v>0.05829483938490914</v>
       </c>
       <c r="Q20">
-        <v>0.26940925005</v>
+        <v>0.9668893208417777</v>
       </c>
       <c r="R20">
-        <v>2.42468325045</v>
+        <v>8.702003887576</v>
       </c>
       <c r="S20">
-        <v>0.0125551124329229</v>
+        <v>0.02607593851356156</v>
       </c>
       <c r="T20">
-        <v>0.0125551124329229</v>
+        <v>0.02607593851356156</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>23</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.050714</v>
+        <v>0.2570396666666667</v>
       </c>
       <c r="H21">
-        <v>0.152142</v>
+        <v>0.771119</v>
       </c>
       <c r="I21">
-        <v>0.1205384943265097</v>
+        <v>0.447311267836032</v>
       </c>
       <c r="J21">
-        <v>0.1205384943265097</v>
+        <v>0.447311267836032</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>19.21801366666667</v>
+        <v>19.76432066666667</v>
       </c>
       <c r="N21">
-        <v>57.654041</v>
+        <v>59.292962</v>
       </c>
       <c r="O21">
-        <v>0.3768067770481296</v>
+        <v>0.3062918121807258</v>
       </c>
       <c r="P21">
-        <v>0.3768067770481295</v>
+        <v>0.3062918121807258</v>
       </c>
       <c r="Q21">
-        <v>0.9746223450913334</v>
+        <v>5.080214396053111</v>
       </c>
       <c r="R21">
-        <v>8.771601105822</v>
+        <v>45.721929564478</v>
       </c>
       <c r="S21">
-        <v>0.0454197215574064</v>
+        <v>0.1370077788343563</v>
       </c>
       <c r="T21">
-        <v>0.04541972155740637</v>
+        <v>0.1370077788343563</v>
       </c>
     </row>
   </sheetData>
